--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Номер телефона</t>
   </si>
@@ -38,14 +38,21 @@
   </si>
   <si>
     <t xml:space="preserve">Вова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+79875548921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Витя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -116,8 +123,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,20 +331,20 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -341,7 +352,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -349,11 +360,18 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t xml:space="preserve">Номер телефона</t>
   </si>
@@ -28,22 +28,1042 @@
     <t xml:space="preserve">Имя маячка</t>
   </si>
   <si>
-    <t xml:space="preserve">+79875325498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+79875324724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+79875548921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Витя</t>
+    <t xml:space="preserve">9101402071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107916549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9112637319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101401859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101401959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9103801470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9051903929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9036016481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9036016482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9036016480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9036016493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9036016492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9036016485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9036016486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092916736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9036016494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092928635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092928636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9092928637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092928638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092928639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092928640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092928641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092928642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092928643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875482858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875483392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875483594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875483638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875483634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875483610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875488606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875487083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875486846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875486331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875486415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875489460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875489110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875489241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875489424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875489209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101401318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875421130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875488790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875488627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875488675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101402171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101401328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101401365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101401686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101401129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101401824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101402290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101402507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101403607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101403466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101403026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101402245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101402510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101403678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9101403700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107913494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107913795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107913687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107915907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107917394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107917395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107915210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107915602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9092928637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107917486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107917719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107918180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107918185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107915041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107914413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9107915099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9697640288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092915571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092917869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092916442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092914771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092916443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9051903649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092919545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092919246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601674068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9051901327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092919814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092919081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092908256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9092919956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601688948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9601995978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648363218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648360981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648360977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648360976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648360973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9648367694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182</t>
   </si>
 </sst>
 </file>
@@ -54,7 +1074,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +1100,20 @@
       <family val="0"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,12 +1123,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -123,7 +1164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,7 +1173,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,51 +1401,1521 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B7" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="n">
+        <v>9697640255</v>
+      </c>
+      <c r="B104" s="9" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="n">
+        <v>9697640259</v>
+      </c>
+      <c r="B109" s="9" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="10"/>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="10"/>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="10"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="10"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="10"/>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="10"/>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="10"/>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="10"/>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="10"/>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="10"/>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="10"/>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="10"/>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="10"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t xml:space="preserve">Номер телефона</t>
   </si>
@@ -1064,6 +1064,12 @@
   </si>
   <si>
     <t xml:space="preserve">182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9875324724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вова</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,13 +1111,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1164,20 +1163,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1185,7 +1180,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1199,14 +1194,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1401,10 +1388,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B187" activeCellId="0" sqref="B187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B184" activeCellId="0" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1417,1505 +1404,1497 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="4" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="4" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="4" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="4" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="n">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="n">
         <v>9697640255</v>
       </c>
-      <c r="B104" s="9" t="n">
+      <c r="B104" s="2" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="s">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="n">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="n">
         <v>9697640259</v>
       </c>
-      <c r="B109" s="9" t="n">
+      <c r="B109" s="2" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="s">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="s">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="s">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="s">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="s">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="s">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="s">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="s">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="s">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="s">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="s">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="s">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="s">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="s">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="s">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="s">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="s">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="s">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="s">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="s">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="s">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="s">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="s">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="s">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="s">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="s">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="s">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="s">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="s">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="s">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="s">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="s">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="s">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="s">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="s">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="s">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="s">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="s">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="s">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="s">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="s">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="s">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="s">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="s">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="s">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="s">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="s">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="s">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="s">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="s">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="s">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="s">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="s">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="s">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="s">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="s">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="s">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10"/>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10"/>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10"/>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10"/>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="10"/>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10"/>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10"/>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10"/>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10"/>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10"/>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10"/>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10"/>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10"/>
-    </row>
+      <c r="A184" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A178" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F189" activeCellId="0" sqref="F189"/>
@@ -2574,6 +2574,54 @@
       <c r="B184" s="0" t="inlineStr">
         <is>
           <t>Вова</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>9875325498</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>Мама</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>9103859815</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>Папа</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>9875548921</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>Витя</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>9873922622</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Вера</t>
         </is>
       </c>
     </row>

--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -2568,60 +2568,60 @@
     <row r="184" ht="15" customHeight="1" s="10">
       <c r="A184" s="0" t="inlineStr">
         <is>
-          <t>9875324724</t>
+          <t>9875325498</t>
         </is>
       </c>
       <c r="B184" s="0" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Мама</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="inlineStr">
         <is>
-          <t>9875325498</t>
+          <t>9103859815</t>
         </is>
       </c>
       <c r="B185" s="0" t="inlineStr">
         <is>
-          <t>Мама</t>
+          <t>Папа</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="inlineStr">
         <is>
-          <t>9103859815</t>
+          <t>9875548921</t>
         </is>
       </c>
       <c r="B186" s="0" t="inlineStr">
         <is>
-          <t>Папа</t>
+          <t>Витя</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="inlineStr">
         <is>
-          <t>9875548921</t>
+          <t>9873922622</t>
         </is>
       </c>
       <c r="B187" s="0" t="inlineStr">
         <is>
-          <t>Витя</t>
+          <t>Вера</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>9873922622</t>
+          <t>9875324724</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Вера</t>
+          <t>Вова</t>
         </is>
       </c>
     </row>

--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Contacts" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contacts" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A178" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
@@ -426,2208 +426,2222 @@
     <row r="2" ht="15" customHeight="1" s="11">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>9101402071</t>
+          <t>9107916549</t>
         </is>
       </c>
       <c r="B2" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="11">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>9107916549</t>
+          <t>9112637319</t>
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="11">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>9112637319</t>
+          <t>9875421141</t>
         </is>
       </c>
       <c r="B4" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="11">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>9875421141</t>
+          <t>9875421220</t>
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="11">
       <c r="A6" s="12" t="inlineStr">
         <is>
-          <t>9875421220</t>
+          <t>9101401859</t>
         </is>
       </c>
       <c r="B6" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="11">
       <c r="A7" s="12" t="inlineStr">
         <is>
-          <t>9101401859</t>
+          <t>9875421232</t>
         </is>
       </c>
       <c r="B7" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="11">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>9875421232</t>
+          <t>9875421139</t>
         </is>
       </c>
       <c r="B8" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="11">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>9875421139</t>
+          <t>9101401959</t>
         </is>
       </c>
       <c r="B9" s="13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="11">
       <c r="A10" s="12" t="inlineStr">
         <is>
-          <t>9101401959</t>
+          <t>9875421194</t>
         </is>
       </c>
       <c r="B10" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="11">
       <c r="A11" s="12" t="inlineStr">
         <is>
-          <t>9875421194</t>
+          <t>9875421201</t>
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="11">
       <c r="A12" s="12" t="inlineStr">
         <is>
-          <t>9875421201</t>
+          <t>9875421160</t>
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="11">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>9875421160</t>
+          <t>9103801470</t>
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="11">
       <c r="A14" s="12" t="inlineStr">
         <is>
-          <t>9103801470</t>
+          <t>9875421131</t>
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="11">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>9875421131</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="n">
-        <v>14</v>
+          <t>9051903929</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="11">
       <c r="A16" s="12" t="inlineStr">
         <is>
-          <t>9051903929</t>
+          <t>9036016481</t>
         </is>
       </c>
       <c r="B16" s="13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="11">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>9036016481</t>
+          <t>9036016482</t>
         </is>
       </c>
       <c r="B17" s="13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="11">
       <c r="A18" s="12" t="inlineStr">
         <is>
-          <t>9036016482</t>
+          <t>9036016480</t>
         </is>
       </c>
       <c r="B18" s="13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="11">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>9036016480</t>
+          <t>9036016493</t>
         </is>
       </c>
       <c r="B19" s="13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="11">
       <c r="A20" s="12" t="inlineStr">
         <is>
-          <t>9036016493</t>
+          <t>9036016492</t>
         </is>
       </c>
       <c r="B20" s="13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="11">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>9036016492</t>
+          <t>9036016485</t>
         </is>
       </c>
       <c r="B21" s="13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" s="11">
       <c r="A22" s="12" t="inlineStr">
         <is>
-          <t>9036016485</t>
+          <t>9036016486</t>
         </is>
       </c>
       <c r="B22" s="13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="11">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>9036016486</t>
+          <t>9092916736</t>
         </is>
       </c>
       <c r="B23" s="13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="11">
       <c r="A24" s="12" t="inlineStr">
         <is>
-          <t>9092916736</t>
+          <t>9036016494</t>
         </is>
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" s="11">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>9036016494</t>
+          <t>9092928635</t>
         </is>
       </c>
       <c r="B25" s="13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="11">
       <c r="A26" s="12" t="inlineStr">
         <is>
-          <t>9092928635</t>
+          <t>9092928636</t>
         </is>
       </c>
       <c r="B26" s="13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" s="11">
-      <c r="A27" s="12" t="inlineStr">
-        <is>
-          <t>9092928636</t>
-        </is>
-      </c>
-      <c r="B27" s="13" t="inlineStr">
-        <is>
-          <t>26</t>
+      <c r="A27" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9092928637</t>
+        </is>
+      </c>
+      <c r="B27" s="15" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" s="11">
-      <c r="A28" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    9092928637</t>
-        </is>
-      </c>
-      <c r="B28" s="15" t="inlineStr">
-        <is>
-          <t>27</t>
+      <c r="A28" s="12" t="inlineStr">
+        <is>
+          <t>9092928638</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="inlineStr">
+        <is>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="11">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>9092928638</t>
+          <t>9875421098</t>
         </is>
       </c>
       <c r="B29" s="13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" s="11">
       <c r="A30" s="12" t="inlineStr">
         <is>
-          <t>9875421098</t>
+          <t>9875421097</t>
         </is>
       </c>
       <c r="B30" s="13" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" s="11">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>9875421097</t>
+          <t>9875421120</t>
         </is>
       </c>
       <c r="B31" s="13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="11">
       <c r="A32" s="12" t="inlineStr">
         <is>
-          <t>9875421120</t>
+          <t>9875421104</t>
         </is>
       </c>
       <c r="B32" s="13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" s="11">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>9875421104</t>
+          <t>9875421108</t>
         </is>
       </c>
       <c r="B33" s="13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" s="11">
       <c r="A34" s="12" t="inlineStr">
         <is>
-          <t>9875421108</t>
+          <t>9875421103</t>
         </is>
       </c>
       <c r="B34" s="13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" s="11">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>9875421103</t>
+          <t>9875421151</t>
         </is>
       </c>
       <c r="B35" s="13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" s="11">
       <c r="A36" s="12" t="inlineStr">
         <is>
-          <t>9875421151</t>
+          <t>9875421153</t>
         </is>
       </c>
       <c r="B36" s="13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="11">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>9875421153</t>
+          <t>9875421186</t>
         </is>
       </c>
       <c r="B37" s="13" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" s="11">
       <c r="A38" s="12" t="inlineStr">
         <is>
-          <t>9875421186</t>
+          <t>9875421169</t>
         </is>
       </c>
       <c r="B38" s="13" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" s="11">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>9875421169</t>
+          <t>9092928639</t>
         </is>
       </c>
       <c r="B39" s="13" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="11">
       <c r="A40" s="12" t="inlineStr">
         <is>
-          <t>9092928639</t>
+          <t>9092928640</t>
         </is>
       </c>
       <c r="B40" s="13" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="11">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>9092928640</t>
+          <t>9092928641</t>
         </is>
       </c>
       <c r="B41" s="13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="11">
       <c r="A42" s="12" t="inlineStr">
         <is>
-          <t>9092928641</t>
+          <t>9092928642</t>
         </is>
       </c>
       <c r="B42" s="13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="11">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>9092928642</t>
+          <t>9092928643</t>
         </is>
       </c>
       <c r="B43" s="13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="11">
       <c r="A44" s="12" t="inlineStr">
         <is>
-          <t>9092928643</t>
+          <t>9875421204</t>
         </is>
       </c>
       <c r="B44" s="13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" s="11">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>9875421204</t>
+          <t>9875482858</t>
         </is>
       </c>
       <c r="B45" s="13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" s="11">
       <c r="A46" s="12" t="inlineStr">
         <is>
-          <t>9875482858</t>
+          <t>9875483392</t>
         </is>
       </c>
       <c r="B46" s="13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" s="11">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>9875483392</t>
+          <t>9875483594</t>
         </is>
       </c>
       <c r="B47" s="13" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="11">
       <c r="A48" s="12" t="inlineStr">
         <is>
-          <t>9875483594</t>
+          <t>9875483638</t>
         </is>
       </c>
       <c r="B48" s="13" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" s="11">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>9875483638</t>
+          <t>9875483634</t>
         </is>
       </c>
       <c r="B49" s="13" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="11">
       <c r="A50" s="12" t="inlineStr">
         <is>
-          <t>9875483634</t>
+          <t>9875483610</t>
         </is>
       </c>
       <c r="B50" s="13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" s="11">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>9875483610</t>
+          <t>9875488606</t>
         </is>
       </c>
       <c r="B51" s="13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="11">
       <c r="A52" s="12" t="inlineStr">
         <is>
-          <t>9875488606</t>
+          <t>9875487083</t>
         </is>
       </c>
       <c r="B52" s="13" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" s="11">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>9875487083</t>
+          <t>9875486846</t>
         </is>
       </c>
       <c r="B53" s="13" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" s="11">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>9875486846</t>
+          <t>9875486331</t>
         </is>
       </c>
       <c r="B54" s="13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" s="11">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>9875486331</t>
+          <t>9875486415</t>
         </is>
       </c>
       <c r="B55" s="13" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" s="11">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>9875486415</t>
+          <t>9875489460</t>
         </is>
       </c>
       <c r="B56" s="13" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" s="11">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>9875489460</t>
+          <t>9875489110</t>
         </is>
       </c>
       <c r="B57" s="13" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" s="11">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>9875489110</t>
+          <t>9875489241</t>
         </is>
       </c>
       <c r="B58" s="13" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" s="11">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>9875489241</t>
+          <t>9875489424</t>
         </is>
       </c>
       <c r="B59" s="13" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" s="11">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>9875489424</t>
+          <t>9875489209</t>
         </is>
       </c>
       <c r="B60" s="13" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" s="11">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>9875489209</t>
+          <t>9875488953</t>
         </is>
       </c>
       <c r="B61" s="13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" s="11">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>9875488953</t>
+          <t>9101401318</t>
         </is>
       </c>
       <c r="B62" s="13" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" s="11">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>9101401318</t>
+          <t>9875421130</t>
         </is>
       </c>
       <c r="B63" s="13" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" s="11">
       <c r="A64" s="12" t="inlineStr">
         <is>
-          <t>9875421130</t>
+          <t>9875488790</t>
         </is>
       </c>
       <c r="B64" s="13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="11">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>9875488790</t>
+          <t>9875488627</t>
         </is>
       </c>
       <c r="B65" s="13" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" s="11">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>9875488627</t>
+          <t>9875488675</t>
         </is>
       </c>
       <c r="B66" s="13" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" s="11">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>9875488675</t>
+          <t>9101402171</t>
         </is>
       </c>
       <c r="B67" s="13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" s="11">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>9101402171</t>
+          <t>9101401328</t>
         </is>
       </c>
       <c r="B68" s="13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" s="11">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>9101401328</t>
+          <t>9101401365</t>
         </is>
       </c>
       <c r="B69" s="13" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" s="11">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>9101401365</t>
+          <t>9101401686</t>
         </is>
       </c>
       <c r="B70" s="13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" s="11">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>9101401686</t>
+          <t>9101401129</t>
         </is>
       </c>
       <c r="B71" s="13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" s="11">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>9101401129</t>
+          <t>9101401824</t>
         </is>
       </c>
       <c r="B72" s="13" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" s="11">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>9101401824</t>
+          <t>9101402290</t>
         </is>
       </c>
       <c r="B73" s="13" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" s="11">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>9101402290</t>
+          <t>9101402507</t>
         </is>
       </c>
       <c r="B74" s="13" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" s="11">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>9101402507</t>
+          <t>9101403607</t>
         </is>
       </c>
       <c r="B75" s="13" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" s="11">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>9101403607</t>
+          <t>9101403466</t>
         </is>
       </c>
       <c r="B76" s="13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" s="11">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>9101403466</t>
+          <t>9101403026</t>
         </is>
       </c>
       <c r="B77" s="13" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" s="11">
       <c r="A78" s="12" t="inlineStr">
         <is>
-          <t>9101403026</t>
+          <t>9101402245</t>
         </is>
       </c>
       <c r="B78" s="13" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" s="11">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>9101402245</t>
+          <t>9101402510</t>
         </is>
       </c>
       <c r="B79" s="13" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" s="11">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>9101402510</t>
+          <t>9101403678</t>
         </is>
       </c>
       <c r="B80" s="13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" s="11">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>9101403678</t>
+          <t>9101403700</t>
         </is>
       </c>
       <c r="B81" s="13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" s="11">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>9101403700</t>
+          <t>9697640289</t>
         </is>
       </c>
       <c r="B82" s="13" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" s="11">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>9697640289</t>
+          <t>9107913494</t>
         </is>
       </c>
       <c r="B83" s="13" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" s="11">
       <c r="A84" s="12" t="inlineStr">
         <is>
-          <t>9107913494</t>
+          <t>9107913795</t>
         </is>
       </c>
       <c r="B84" s="13" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" s="11">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>9107913795</t>
+          <t>9107913687</t>
         </is>
       </c>
       <c r="B85" s="13" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" s="11">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>9107913687</t>
+          <t>9107915907</t>
         </is>
       </c>
       <c r="B86" s="13" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" s="11">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>9107915907</t>
+          <t>9107917394</t>
         </is>
       </c>
       <c r="B87" s="13" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" s="11">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>9107917394</t>
+          <t>9107917395</t>
         </is>
       </c>
       <c r="B88" s="13" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" s="11">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>9107917395</t>
+          <t>9107915210</t>
         </is>
       </c>
       <c r="B89" s="13" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" s="11">
       <c r="A90" s="12" t="inlineStr">
         <is>
-          <t>9107915210</t>
+          <t>9107915602</t>
         </is>
       </c>
       <c r="B90" s="13" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" s="11">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>9107915602</t>
+          <t xml:space="preserve"> 9092928637</t>
         </is>
       </c>
       <c r="B91" s="13" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" s="11">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9092928637</t>
+          <t>9107917486</t>
         </is>
       </c>
       <c r="B92" s="13" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" s="11">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>9107917486</t>
+          <t>9107917719</t>
         </is>
       </c>
       <c r="B93" s="13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" s="11">
       <c r="A94" s="12" t="inlineStr">
         <is>
-          <t>9107917719</t>
+          <t>9107918180</t>
         </is>
       </c>
       <c r="B94" s="13" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" s="11">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>9107918180</t>
+          <t>9107918185</t>
         </is>
       </c>
       <c r="B95" s="13" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" s="11">
       <c r="A96" s="12" t="inlineStr">
         <is>
-          <t>9107918185</t>
+          <t>9107915041</t>
         </is>
       </c>
       <c r="B96" s="13" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" s="11">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>9107915041</t>
+          <t>9107914413</t>
         </is>
       </c>
       <c r="B97" s="13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" s="11">
       <c r="A98" s="12" t="inlineStr">
         <is>
-          <t>9107914413</t>
+          <t>9107915099</t>
         </is>
       </c>
       <c r="B98" s="13" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" s="11">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>9107915099</t>
+          <t>9697640251</t>
         </is>
       </c>
       <c r="B99" s="13" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" s="11">
       <c r="A100" s="12" t="inlineStr">
         <is>
-          <t>9697640251</t>
+          <t>9697640252</t>
         </is>
       </c>
       <c r="B100" s="13" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" s="11">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>9697640252</t>
+          <t>9697640253</t>
         </is>
       </c>
       <c r="B101" s="13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" s="11">
       <c r="A102" s="12" t="inlineStr">
         <is>
-          <t>9697640253</t>
+          <t>9697640254</t>
         </is>
       </c>
       <c r="B102" s="13" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" s="11">
-      <c r="A103" s="12" t="inlineStr">
-        <is>
-          <t>9697640254</t>
-        </is>
-      </c>
-      <c r="B103" s="13" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="A103" s="16" t="n">
+        <v>9697640255</v>
+      </c>
+      <c r="B103" s="10" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" s="11">
-      <c r="A104" s="16" t="n">
-        <v>9697640255</v>
-      </c>
-      <c r="B104" s="10" t="n">
-        <v>103</v>
+      <c r="A104" s="12" t="inlineStr">
+        <is>
+          <t>9697640256</t>
+        </is>
+      </c>
+      <c r="B104" s="13" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1" s="11">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>9697640256</t>
+          <t>9697640290</t>
         </is>
       </c>
       <c r="B105" s="13" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" s="11">
       <c r="A106" s="12" t="inlineStr">
         <is>
-          <t>9697640290</t>
+          <t>9697640257</t>
         </is>
       </c>
       <c r="B106" s="13" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" s="11">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>9697640257</t>
+          <t>9697640258</t>
         </is>
       </c>
       <c r="B107" s="13" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>107</t>
         </is>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1" s="11">
-      <c r="A108" s="12" t="inlineStr">
-        <is>
-          <t>9697640258</t>
-        </is>
-      </c>
-      <c r="B108" s="13" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
+      <c r="A108" s="16" t="n">
+        <v>9697640259</v>
+      </c>
+      <c r="B108" s="10" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1" s="11">
-      <c r="A109" s="16" t="n">
-        <v>9697640259</v>
-      </c>
-      <c r="B109" s="10" t="n">
-        <v>108</v>
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>9697640260</t>
+        </is>
+      </c>
+      <c r="B109" s="13" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1" s="11">
       <c r="A110" s="12" t="inlineStr">
         <is>
-          <t>9697640260</t>
+          <t>9697640261</t>
         </is>
       </c>
       <c r="B110" s="13" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1" s="11">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>9697640261</t>
+          <t>9697640262</t>
         </is>
       </c>
       <c r="B111" s="13" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1" s="11">
       <c r="A112" s="12" t="inlineStr">
         <is>
-          <t>9697640262</t>
+          <t>9697640263</t>
         </is>
       </c>
       <c r="B112" s="13" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1" s="11">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>9697640263</t>
+          <t>9697640264</t>
         </is>
       </c>
       <c r="B113" s="13" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1" s="11">
       <c r="A114" s="12" t="inlineStr">
         <is>
-          <t>9697640264</t>
+          <t>9697640265</t>
         </is>
       </c>
       <c r="B114" s="13" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>114</t>
         </is>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1" s="11">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>9697640265</t>
+          <t>9697640266</t>
         </is>
       </c>
       <c r="B115" s="13" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1" s="11">
       <c r="A116" s="12" t="inlineStr">
         <is>
-          <t>9697640266</t>
+          <t>9697640267</t>
         </is>
       </c>
       <c r="B116" s="13" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1" s="11">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>9697640267</t>
+          <t>9697640268</t>
         </is>
       </c>
       <c r="B117" s="13" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>117</t>
         </is>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1" s="11">
       <c r="A118" s="12" t="inlineStr">
         <is>
-          <t>9697640268</t>
+          <t>9697640269</t>
         </is>
       </c>
       <c r="B118" s="13" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1" s="11">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>9697640269</t>
+          <t>9697640270</t>
         </is>
       </c>
       <c r="B119" s="13" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>119</t>
         </is>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1" s="11">
       <c r="A120" s="12" t="inlineStr">
         <is>
-          <t>9697640270</t>
+          <t>9697640271</t>
         </is>
       </c>
       <c r="B120" s="13" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1" s="11">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>9697640271</t>
+          <t>9697640272</t>
         </is>
       </c>
       <c r="B121" s="13" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1" s="11">
       <c r="A122" s="12" t="inlineStr">
         <is>
-          <t>9697640272</t>
+          <t>9697640273</t>
         </is>
       </c>
       <c r="B122" s="13" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>122</t>
         </is>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1" s="11">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>9697640273</t>
+          <t>9697640274</t>
         </is>
       </c>
       <c r="B123" s="13" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>123</t>
         </is>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1" s="11">
       <c r="A124" s="12" t="inlineStr">
         <is>
-          <t>9697640274</t>
+          <t>9697640275</t>
         </is>
       </c>
       <c r="B124" s="13" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" s="11">
       <c r="A125" s="12" t="inlineStr">
         <is>
-          <t>9697640275</t>
+          <t>9697640276</t>
         </is>
       </c>
       <c r="B125" s="13" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1" s="11">
       <c r="A126" s="12" t="inlineStr">
         <is>
-          <t>9697640276</t>
+          <t>9697640277</t>
         </is>
       </c>
       <c r="B126" s="13" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>126</t>
         </is>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" s="11">
       <c r="A127" s="12" t="inlineStr">
         <is>
-          <t>9697640277</t>
+          <t>9697640278</t>
         </is>
       </c>
       <c r="B127" s="13" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1" s="11">
       <c r="A128" s="12" t="inlineStr">
         <is>
-          <t>9697640278</t>
+          <t>9697640279</t>
         </is>
       </c>
       <c r="B128" s="13" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1" s="11">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>9697640279</t>
+          <t>9697640280</t>
         </is>
       </c>
       <c r="B129" s="13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1" s="11">
       <c r="A130" s="12" t="inlineStr">
         <is>
-          <t>9697640280</t>
+          <t>9697640281</t>
         </is>
       </c>
       <c r="B130" s="13" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>130</t>
         </is>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1" s="11">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>9697640281</t>
+          <t>9697640282</t>
         </is>
       </c>
       <c r="B131" s="13" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>131</t>
         </is>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1" s="11">
       <c r="A132" s="12" t="inlineStr">
         <is>
-          <t>9697640282</t>
+          <t>9697640283</t>
         </is>
       </c>
       <c r="B132" s="13" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1" s="11">
       <c r="A133" s="12" t="inlineStr">
         <is>
-          <t>9697640283</t>
+          <t>9697640284</t>
         </is>
       </c>
       <c r="B133" s="13" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1" s="11">
       <c r="A134" s="12" t="inlineStr">
         <is>
-          <t>9697640284</t>
+          <t>9697640285</t>
         </is>
       </c>
       <c r="B134" s="13" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>134</t>
         </is>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1" s="11">
       <c r="A135" s="12" t="inlineStr">
         <is>
-          <t>9697640285</t>
+          <t>9697640286</t>
         </is>
       </c>
       <c r="B135" s="13" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>135</t>
         </is>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1" s="11">
       <c r="A136" s="12" t="inlineStr">
         <is>
-          <t>9697640286</t>
+          <t>9697640287</t>
         </is>
       </c>
       <c r="B136" s="13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>136</t>
         </is>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" s="11">
       <c r="A137" s="12" t="inlineStr">
         <is>
-          <t>9697640287</t>
+          <t>9697640288</t>
         </is>
       </c>
       <c r="B137" s="13" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1" s="11">
       <c r="A138" s="12" t="inlineStr">
         <is>
-          <t>9697640288</t>
+          <t>9092915571</t>
         </is>
       </c>
       <c r="B138" s="13" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>138</t>
         </is>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1" s="11">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>9092915571</t>
+          <t>9092917869</t>
         </is>
       </c>
       <c r="B139" s="13" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>139</t>
         </is>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1" s="11">
       <c r="A140" s="12" t="inlineStr">
         <is>
-          <t>9092917869</t>
+          <t>9092916442</t>
         </is>
       </c>
       <c r="B140" s="13" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1" s="11">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>9092916442</t>
+          <t>9092914771</t>
         </is>
       </c>
       <c r="B141" s="13" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>141</t>
         </is>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1" s="11">
       <c r="A142" s="12" t="inlineStr">
         <is>
-          <t>9092914771</t>
+          <t>9092916443</t>
         </is>
       </c>
       <c r="B142" s="13" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1" s="11">
       <c r="A143" s="12" t="inlineStr">
         <is>
-          <t>9092916443</t>
+          <t>9051903649</t>
         </is>
       </c>
       <c r="B143" s="13" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1" s="11">
       <c r="A144" s="12" t="inlineStr">
         <is>
-          <t>9051903649</t>
+          <t>9092919545</t>
         </is>
       </c>
       <c r="B144" s="13" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1" s="11">
       <c r="A145" s="12" t="inlineStr">
         <is>
-          <t>9092919545</t>
+          <t>9092919246</t>
         </is>
       </c>
       <c r="B145" s="13" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1" s="11">
       <c r="A146" s="12" t="inlineStr">
         <is>
-          <t>9092919246</t>
+          <t>9601674068</t>
         </is>
       </c>
       <c r="B146" s="13" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>146</t>
         </is>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1" s="11">
       <c r="A147" s="12" t="inlineStr">
         <is>
-          <t>9601674068</t>
+          <t>9051901327</t>
         </is>
       </c>
       <c r="B147" s="13" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1" s="11">
       <c r="A148" s="12" t="inlineStr">
         <is>
-          <t>9051901327</t>
+          <t>9092919814</t>
         </is>
       </c>
       <c r="B148" s="13" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>148</t>
         </is>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1" s="11">
       <c r="A149" s="12" t="inlineStr">
         <is>
-          <t>9092919814</t>
+          <t>9092919081</t>
         </is>
       </c>
       <c r="B149" s="13" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>149</t>
         </is>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1" s="11">
       <c r="A150" s="12" t="inlineStr">
         <is>
-          <t>9092919081</t>
+          <t>9092908256</t>
         </is>
       </c>
       <c r="B150" s="13" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1" s="11">
       <c r="A151" s="12" t="inlineStr">
         <is>
-          <t>9092908256</t>
+          <t>9092919956</t>
         </is>
       </c>
       <c r="B151" s="13" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>151</t>
         </is>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" s="11">
       <c r="A152" s="12" t="inlineStr">
         <is>
-          <t>9092919956</t>
+          <t>9601688948</t>
         </is>
       </c>
       <c r="B152" s="13" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1" s="11">
       <c r="A153" s="12" t="inlineStr">
         <is>
-          <t>9601688948</t>
+          <t>9601995945</t>
         </is>
       </c>
       <c r="B153" s="13" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" s="11">
       <c r="A154" s="12" t="inlineStr">
         <is>
-          <t>9601995945</t>
+          <t>9601995947</t>
         </is>
       </c>
       <c r="B154" s="13" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" s="11">
       <c r="A155" s="12" t="inlineStr">
         <is>
-          <t>9601995947</t>
+          <t>9601995949</t>
         </is>
       </c>
       <c r="B155" s="13" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1" s="11">
       <c r="A156" s="12" t="inlineStr">
         <is>
-          <t>9601995949</t>
+          <t>9601995952</t>
         </is>
       </c>
       <c r="B156" s="13" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1" s="11">
       <c r="A157" s="12" t="inlineStr">
         <is>
-          <t>9601995952</t>
+          <t>9601995954</t>
         </is>
       </c>
       <c r="B157" s="13" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" s="11">
       <c r="A158" s="12" t="inlineStr">
         <is>
-          <t>9601995954</t>
+          <t>9601995956</t>
         </is>
       </c>
       <c r="B158" s="13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1" s="11">
       <c r="A159" s="12" t="inlineStr">
         <is>
-          <t>9601995956</t>
+          <t>9601995958</t>
         </is>
       </c>
       <c r="B159" s="13" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>159</t>
         </is>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" s="11">
       <c r="A160" s="12" t="inlineStr">
         <is>
-          <t>9601995958</t>
+          <t>9601995965</t>
         </is>
       </c>
       <c r="B160" s="13" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>160</t>
         </is>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" s="11">
       <c r="A161" s="12" t="inlineStr">
         <is>
-          <t>9601995965</t>
+          <t>9601995977</t>
         </is>
       </c>
       <c r="B161" s="13" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>161</t>
         </is>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1" s="11">
       <c r="A162" s="12" t="inlineStr">
         <is>
-          <t>9601995977</t>
+          <t>9601995978</t>
         </is>
       </c>
       <c r="B162" s="13" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>162</t>
         </is>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1" s="11">
       <c r="A163" s="12" t="inlineStr">
         <is>
-          <t>9601995978</t>
+          <t>9648363226</t>
         </is>
       </c>
       <c r="B163" s="13" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>163</t>
         </is>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1" s="11">
       <c r="A164" s="12" t="inlineStr">
         <is>
-          <t>9648363226</t>
+          <t>9648363201</t>
         </is>
       </c>
       <c r="B164" s="13" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>164</t>
         </is>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1" s="11">
       <c r="A165" s="12" t="inlineStr">
         <is>
-          <t>9648363201</t>
+          <t>9648363225</t>
         </is>
       </c>
       <c r="B165" s="13" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>165</t>
         </is>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1" s="11">
       <c r="A166" s="12" t="inlineStr">
         <is>
-          <t>9648363225</t>
+          <t>9648363221</t>
         </is>
       </c>
       <c r="B166" s="13" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>166</t>
         </is>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1" s="11">
       <c r="A167" s="12" t="inlineStr">
         <is>
-          <t>9648363221</t>
+          <t>9648363219</t>
         </is>
       </c>
       <c r="B167" s="13" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1" s="11">
       <c r="A168" s="12" t="inlineStr">
         <is>
-          <t>9648363219</t>
+          <t>9648363202</t>
         </is>
       </c>
       <c r="B168" s="13" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>168</t>
         </is>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1" s="11">
       <c r="A169" s="12" t="inlineStr">
         <is>
-          <t>9648363202</t>
+          <t>9648363205</t>
         </is>
       </c>
       <c r="B169" s="13" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1" s="11">
       <c r="A170" s="12" t="inlineStr">
         <is>
-          <t>9648363205</t>
+          <t>9648363206</t>
         </is>
       </c>
       <c r="B170" s="13" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1" s="11">
       <c r="A171" s="12" t="inlineStr">
         <is>
-          <t>9648363206</t>
+          <t>9648363207</t>
         </is>
       </c>
       <c r="B171" s="13" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>171</t>
         </is>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1" s="11">
       <c r="A172" s="12" t="inlineStr">
         <is>
-          <t>9648363207</t>
+          <t>9648363210</t>
         </is>
       </c>
       <c r="B172" s="13" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>172</t>
         </is>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1" s="11">
       <c r="A173" s="12" t="inlineStr">
         <is>
-          <t>9648363210</t>
+          <t>9648363213</t>
         </is>
       </c>
       <c r="B173" s="13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>173</t>
         </is>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1" s="11">
       <c r="A174" s="12" t="inlineStr">
         <is>
-          <t>9648363213</t>
+          <t>9648363215</t>
         </is>
       </c>
       <c r="B174" s="13" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1" s="11">
       <c r="A175" s="12" t="inlineStr">
         <is>
-          <t>9648363215</t>
+          <t>9648363216</t>
         </is>
       </c>
       <c r="B175" s="13" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1" s="11">
       <c r="A176" s="12" t="inlineStr">
         <is>
-          <t>9648363216</t>
+          <t>9648363217</t>
         </is>
       </c>
       <c r="B176" s="13" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>176</t>
         </is>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1" s="11">
       <c r="A177" s="12" t="inlineStr">
         <is>
-          <t>9648363217</t>
+          <t>9648363218</t>
         </is>
       </c>
       <c r="B177" s="13" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>177</t>
         </is>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1" s="11">
       <c r="A178" s="12" t="inlineStr">
         <is>
-          <t>9648363218</t>
+          <t>9648360981</t>
         </is>
       </c>
       <c r="B178" s="13" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>178</t>
         </is>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1" s="11">
       <c r="A179" s="12" t="inlineStr">
         <is>
-          <t>9648360981</t>
+          <t>9648360977</t>
         </is>
       </c>
       <c r="B179" s="13" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>179</t>
         </is>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1" s="11">
       <c r="A180" s="12" t="inlineStr">
         <is>
-          <t>9648360977</t>
+          <t>9648360976</t>
         </is>
       </c>
       <c r="B180" s="13" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1" s="11">
       <c r="A181" s="12" t="inlineStr">
         <is>
-          <t>9648360976</t>
+          <t>9648360973</t>
         </is>
       </c>
       <c r="B181" s="13" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>181</t>
         </is>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1" s="11">
       <c r="A182" s="12" t="inlineStr">
         <is>
-          <t>9648360973</t>
+          <t>9648367694</t>
         </is>
       </c>
       <c r="B182" s="13" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>182</t>
         </is>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1" s="11">
-      <c r="A183" s="12" t="inlineStr">
-        <is>
-          <t>9648367694</t>
-        </is>
-      </c>
-      <c r="B183" s="13" t="inlineStr">
-        <is>
-          <t>182</t>
+      <c r="A183" s="17" t="inlineStr">
+        <is>
+          <t>9875325498</t>
+        </is>
+      </c>
+      <c r="B183" s="17" t="inlineStr">
+        <is>
+          <t>Мама</t>
         </is>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1" s="11">
       <c r="A184" s="17" t="inlineStr">
         <is>
-          <t>9875325498</t>
+          <t>9103859815</t>
         </is>
       </c>
       <c r="B184" s="17" t="inlineStr">
         <is>
-          <t>Мама</t>
+          <t>Папа</t>
         </is>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1" s="11">
       <c r="A185" s="17" t="inlineStr">
         <is>
-          <t>9103859815</t>
+          <t>9875548921</t>
         </is>
       </c>
       <c r="B185" s="17" t="inlineStr">
         <is>
-          <t>Папа</t>
+          <t>Витя</t>
         </is>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1" s="11">
       <c r="A186" s="17" t="inlineStr">
         <is>
-          <t>9875548921</t>
+          <t>9873922622</t>
         </is>
       </c>
       <c r="B186" s="17" t="inlineStr">
         <is>
-          <t>Витя</t>
+          <t>Вера</t>
         </is>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1" s="11">
       <c r="A187" s="17" t="inlineStr">
         <is>
-          <t>9873922622</t>
+          <t>9875324724</t>
         </is>
       </c>
       <c r="B187" s="17" t="inlineStr">
         <is>
-          <t>Вера</t>
+          <t>Вова</t>
         </is>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1" s="11">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>9875324724</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Вова</t>
+      <c r="A188" s="17" t="inlineStr">
+        <is>
+          <t>9101402071</t>
+        </is>
+      </c>
+      <c r="B188" s="17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>9302590039</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ТЕСТОВЫЙ</t>
         </is>
       </c>
     </row>

--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contacts" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A178" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
@@ -2634,14 +2634,26 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="17" t="inlineStr">
         <is>
           <t>9302590039</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="17" t="inlineStr">
         <is>
           <t>ТЕСТОВЫЙ</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>90000000000</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
